--- a/Documentation/Sprint_Review_Protocol_6.xlsx
+++ b/Documentation/Sprint_Review_Protocol_6.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiede\Documents\ITP2_PC_Game\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBF6805-2615-4A7E-B791-BF3CE7DE495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EDFD01-9CBD-4465-BF91-D330FC0291F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22035" yWindow="8520" windowWidth="19200" windowHeight="11265" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -50,24 +52,57 @@
     <t>Participant 1</t>
   </si>
   <si>
+    <t>Faltas Patrick</t>
+  </si>
+  <si>
     <t>Participant 2</t>
   </si>
   <si>
+    <t>Müller Oliver</t>
+  </si>
+  <si>
     <t>Participant 3</t>
   </si>
   <si>
+    <t>Njeru Paula</t>
+  </si>
+  <si>
     <t>Participant 4</t>
   </si>
   <si>
+    <t>Porubsky Matus</t>
+  </si>
+  <si>
     <t>Participant 5</t>
   </si>
   <si>
+    <t>Wiedermann Gabriel</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Parg Manuel-Christopher</t>
+  </si>
+  <si>
     <t>List the Ids of the Requirements which are subject to the review</t>
   </si>
   <si>
     <t>Req ID</t>
   </si>
   <si>
+    <t>short description [opt]</t>
+  </si>
+  <si>
+    <t>Estimate [h]</t>
+  </si>
+  <si>
+    <t>Real Efort [h]</t>
+  </si>
+  <si>
+    <t>Delta [h]</t>
+  </si>
+  <si>
     <t>Passed</t>
   </si>
   <si>
@@ -77,7 +112,31 @@
     <t>remarks</t>
   </si>
   <si>
-    <t>short description [opt]</t>
+    <t>[Porubsky] [Müller] Research movement in unity (layer masks, transformations, object relationships)</t>
+  </si>
+  <si>
+    <t>[Porubsky] [Müller] Implement movement in unity (with scripts)</t>
+  </si>
+  <si>
+    <t>selection fehlt noch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Faltas] [Wiedermann] implementing the fighting </t>
+  </si>
+  <si>
+    <t>[Porubsky] Create Prefabs for collision</t>
+  </si>
+  <si>
+    <t>[Porubsky] Create brushes for Prefabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Müller] Reworking some assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Paula] Create Pause Menu in Unity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Alle] Meetings </t>
   </si>
   <si>
     <t>…</t>
@@ -86,71 +145,17 @@
     <t>n</t>
   </si>
   <si>
-    <t>Mentor</t>
-  </si>
-  <si>
     <t>fill out the orange fields</t>
   </si>
   <si>
-    <t>Estimate [h]</t>
-  </si>
-  <si>
-    <t>Real Efort [h]</t>
-  </si>
-  <si>
-    <t>Delta [h]</t>
-  </si>
-  <si>
     <t>Transfer your estimate as well as your real effort from your planing tool to this protocol</t>
-  </si>
-  <si>
-    <t>Faltas Patrick</t>
-  </si>
-  <si>
-    <t>Müller Oliver</t>
-  </si>
-  <si>
-    <t>Njeru Paula</t>
-  </si>
-  <si>
-    <t>Porubsky Matus</t>
-  </si>
-  <si>
-    <t>Wiedermann Gabriel</t>
-  </si>
-  <si>
-    <t>Parg Manuel-Christopher</t>
-  </si>
-  <si>
-    <t>[Porubsky] Create Prefabs for collision</t>
-  </si>
-  <si>
-    <t>[Porubsky] Create brushes for Prefabs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Faltas] [Wiedermann] implementing the fighting </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Müller] Reworking some assets </t>
-  </si>
-  <si>
-    <t>selection fehlt noch</t>
-  </si>
-  <si>
-    <t>[Porubsky] [Müller] Research movement in unity (layer masks, transformations, object relationships)</t>
-  </si>
-  <si>
-    <t>[Porubsky] [Müller] Implement movement in unity (with scripts)</t>
-  </si>
-  <si>
-    <t>[Alle] meetings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,13 +399,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -408,6 +422,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -417,49 +458,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -478,7 +482,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -777,46 +781,46 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="110.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.453125" style="2"/>
-    <col min="8" max="8" width="81.1796875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="2"/>
+    <col min="2" max="2" width="110.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="81.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.45" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -827,142 +831,142 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="B4" s="15"/>
+      <c r="C4" s="18">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="20">
         <v>44705</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="26">
+      <c r="B6" s="17"/>
+      <c r="C6" s="21">
         <v>8</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="30" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:9" ht="15.95" thickBot="1">
+      <c r="A12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
@@ -974,29 +978,29 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="10">
         <v>5</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="2">
         <f>D16-C16</f>
         <v>0</v>
       </c>
@@ -1004,53 +1008,53 @@
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17" s="8">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
         <v>10</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="10">
         <v>8</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="2">
         <f t="shared" ref="E17:E31" si="0">D17-C17</f>
         <v>-2</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="8">
         <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>15</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="10">
         <v>12</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -1060,10 +1064,10 @@
       <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="10">
         <v>1</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1071,7 +1075,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -1081,10 +1085,10 @@
       <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="10">
         <v>2</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1092,20 +1096,20 @@
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" s="8">
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="10">
         <v>1</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1113,20 +1117,20 @@
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" s="8">
         <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
-      </c>
-      <c r="D22" s="32">
-        <v>4</v>
-      </c>
-      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1134,14 +1138,20 @@
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" s="8">
         <v>8</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="9">
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1149,14 +1159,14 @@
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" s="8">
         <v>9</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="9">
+      <c r="D24" s="10"/>
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1164,14 +1174,14 @@
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" s="8">
         <v>10</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="9">
+      <c r="D25" s="10"/>
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1179,14 +1189,14 @@
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" s="8">
         <v>11</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="9">
+      <c r="D26" s="10"/>
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1194,14 +1204,14 @@
       <c r="G26" s="4"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27" s="8">
         <v>12</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="9">
+      <c r="D27" s="10"/>
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1209,14 +1219,14 @@
       <c r="G27" s="4"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28" s="8">
         <v>13</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="9">
+      <c r="D28" s="10"/>
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1224,14 +1234,14 @@
       <c r="G28" s="4"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="9">
+      <c r="D29" s="10"/>
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1239,14 +1249,14 @@
       <c r="G29" s="4"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="9">
+      <c r="D30" s="10"/>
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1254,14 +1264,14 @@
       <c r="G30" s="4"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="9">
+      <c r="D31" s="10"/>
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1269,7 +1279,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <f>COUNT(A16:A31)</f>
         <v>13</v>
@@ -1291,19 +1301,25 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1318,12 +1334,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
